--- a/configs/excel/Twelve.xlsx
+++ b/configs/excel/Twelve.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SKin" sheetId="1" r:id="rId1"/>
     <sheet name="Const" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="name" sheetId="5" r:id="rId4"/>
+    <sheet name="Name" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="172">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,37 +283,397 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_daojishitime</t>
+  </si>
+  <si>
+    <t>txt_default_skin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicnames</t>
+  </si>
+  <si>
+    <t>gamepingtai</t>
+  </si>
+  <si>
+    <t>fenxiangstr</t>
+  </si>
+  <si>
+    <t>wechat</t>
+  </si>
+  <si>
+    <t>music_01,music_02,music_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我已长命百岁，你能坚持多久？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步步高升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600;300,950,400,600</t>
+  </si>
+  <si>
+    <t>天花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水痘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒谎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翘课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被拐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烫头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗殴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车祸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堕胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,2;0,1,2,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇往直前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2</t>
+  </si>
+  <si>
+    <t>level_3</t>
+  </si>
+  <si>
+    <t>level_4</t>
+  </si>
+  <si>
+    <t>level_5</t>
+  </si>
+  <si>
+    <t>level_6</t>
+  </si>
+  <si>
+    <t>level_7</t>
+  </si>
+  <si>
+    <t>level_8</t>
+  </si>
+  <si>
+    <t>level_9</t>
+  </si>
+  <si>
+    <t>level_10</t>
+  </si>
+  <si>
+    <t>level_11</t>
+  </si>
+  <si>
+    <t>level_12</t>
+  </si>
+  <si>
+    <t>level_13</t>
+  </si>
+  <si>
+    <t>level_14</t>
+  </si>
+  <si>
+    <t>level_15</t>
+  </si>
+  <si>
+    <t>level_16</t>
+  </si>
+  <si>
+    <t>level_17</t>
+  </si>
+  <si>
+    <t>level_18</t>
+  </si>
+  <si>
+    <t>level_19</t>
+  </si>
+  <si>
+    <t>level_20</t>
+  </si>
+  <si>
+    <t>表示人生该阶段，及对应的背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name里的阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点一下一个月过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是人生1个阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千军万马独木桥，出生了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没碰到毒奶，平安一周岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丫丫学步，到处撒尿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园的幸福生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生统治世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑，激情燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家有子女初长成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命，享天年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷得浮生半日闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体倍棒，一口气爬5楼！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古来稀，现代不稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四世同堂，其乐融融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最美不过夕阳红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长命百岁，怡然自得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总有一天我有属于我的天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入社会，新的旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春无悔，大学再见！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情窦初开的岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就是青春期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立，责任，担当！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭幸福，事业有成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life(0,1,level_0,b01;被表示0分的时候，对应的是name里的阶段1的事件//人生不同阶段对应不同负面事件,level_0对应的const里的阶段level_0;b01表示用的第一个背景图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09;1080,5,level_19,b10;1200,5,level_20,b10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1分表示一个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换背景，只给红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月模式,不用这种更换背景逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无岁月模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四面埋伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650;160,90,400,600;200,95,400,600;250,100,400,600;300,105,400,600</t>
+  </si>
+  <si>
     <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt_daojishitime</t>
-  </si>
-  <si>
-    <t>txt_default_skin_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>musicnames</t>
-  </si>
-  <si>
-    <t>gamepingtai</t>
-  </si>
-  <si>
-    <t>fenxiangstr</t>
-  </si>
-  <si>
-    <t>wechat</t>
-  </si>
-  <si>
-    <t>music_01,music_02,music_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我已长命百岁，你能坚持多久？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,359 +681,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步步高升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔时间2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600;300,950,400,600</t>
-  </si>
-  <si>
-    <t>天花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水痘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饥饿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溺水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒谎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翘课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网瘾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被拐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烫头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗殴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车祸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堕胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,2;0,1,2,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇往直前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_2</t>
-  </si>
-  <si>
-    <t>level_3</t>
-  </si>
-  <si>
-    <t>level_4</t>
-  </si>
-  <si>
-    <t>level_5</t>
-  </si>
-  <si>
-    <t>level_6</t>
-  </si>
-  <si>
-    <t>level_7</t>
-  </si>
-  <si>
-    <t>level_8</t>
-  </si>
-  <si>
-    <t>level_9</t>
-  </si>
-  <si>
-    <t>level_10</t>
-  </si>
-  <si>
-    <t>level_11</t>
-  </si>
-  <si>
-    <t>level_12</t>
-  </si>
-  <si>
-    <t>level_13</t>
-  </si>
-  <si>
-    <t>level_14</t>
-  </si>
-  <si>
-    <t>level_15</t>
-  </si>
-  <si>
-    <t>level_16</t>
-  </si>
-  <si>
-    <t>level_17</t>
-  </si>
-  <si>
-    <t>level_18</t>
-  </si>
-  <si>
-    <t>level_19</t>
-  </si>
-  <si>
-    <t>level_20</t>
-  </si>
-  <si>
-    <t>表示人生该阶段，及对应的背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name里的阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点一下一个月过去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是不是人生1个阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千军万马独木桥，出生了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没碰到毒奶，平安一周岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丫丫学步，到处撒尿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼儿园的幸福生活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学生统治世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑，激情燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家有子女初长成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命，享天年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷得浮生半日闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体倍棒，一口气爬5楼！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古来稀，现代不稀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四世同堂，其乐融融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最美不过夕阳红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长命百岁，怡然自得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总有一天我有属于我的天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初入社会，新的旅程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青春无悔，大学再见！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情窦初开的岁月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这就是青春期？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立，责任，担当！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭幸福，事业有成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用的背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life(0,1,level_0,b01;被表示0分的时候，对应的是name里的阶段1的事件//人生不同阶段对应不同负面事件,level_0对应的const里的阶段level_0;b01表示用的第一个背景图)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09;1080,5,level_19,b10;1200,5,level_20,b10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1分表示一个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁月模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换背景，只给红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁月模式,不用这种更换背景逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无岁月模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1408,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1410,10 +1418,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1426,7 +1434,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1434,7 +1442,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1442,214 +1450,214 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>126</v>
       </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1662,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1691,7 +1699,7 @@
         <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
@@ -1714,7 +1722,7 @@
         <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>36</v>
@@ -1723,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1755,7 +1763,7 @@
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
@@ -1764,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1794,7 +1802,7 @@
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>37</v>
@@ -1803,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -1833,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>38</v>
@@ -1842,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -1862,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>39</v>
@@ -1874,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -1897,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>40</v>
@@ -1909,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
@@ -1929,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>41</v>
@@ -1941,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
@@ -1976,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
         <v>32</v>
@@ -2008,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
@@ -2030,24 +2038,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2058,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2072,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2086,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2100,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2114,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2128,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2142,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2156,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2170,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2184,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2199,10 +2207,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2214,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2229,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2244,10 +2252,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2259,10 +2267,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2274,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2289,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2304,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2319,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2334,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2349,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2364,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2379,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2394,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2409,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2424,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2439,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2454,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2469,10 +2477,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2484,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2499,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2514,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2529,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2544,10 +2552,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2559,10 +2567,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2574,10 +2582,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2589,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2604,10 +2612,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2619,10 +2627,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2634,10 +2642,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2649,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2664,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2679,10 +2687,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2694,10 +2702,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2709,10 +2717,10 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2724,10 +2732,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2739,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2754,10 +2762,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2769,10 +2777,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2784,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2799,10 +2807,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2814,10 +2822,10 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2829,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2844,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2859,10 +2867,10 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2874,10 +2882,10 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2889,10 +2897,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2904,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2919,10 +2927,10 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2934,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2949,10 +2957,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2964,10 +2972,10 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2979,10 +2987,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2994,10 +3002,10 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3009,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3024,10 +3032,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3039,10 +3047,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3054,10 +3062,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3069,10 +3077,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3084,10 +3092,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3099,10 +3107,10 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3114,10 +3122,10 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3129,10 +3137,10 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3144,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3159,10 +3167,10 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3174,10 +3182,10 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3189,10 +3197,10 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3204,10 +3212,10 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3219,10 +3227,10 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3234,10 +3242,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3249,10 +3257,10 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3264,10 +3272,10 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3279,10 +3287,10 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3294,10 +3302,10 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3309,10 +3317,10 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3324,10 +3332,10 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3339,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3354,10 +3362,10 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3369,10 +3377,10 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3384,10 +3392,10 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D91" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3399,10 +3407,10 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3414,10 +3422,10 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3429,10 +3437,10 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3444,10 +3452,10 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3459,10 +3467,10 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3474,10 +3482,10 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3489,10 +3497,10 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3504,10 +3512,10 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3519,10 +3527,10 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3534,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3549,10 +3557,10 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3564,10 +3572,10 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3579,10 +3587,10 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3594,10 +3602,10 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3609,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3624,10 +3632,10 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3639,10 +3647,10 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3654,10 +3662,10 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3669,10 +3677,10 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3684,10 +3692,10 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3699,10 +3707,10 @@
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3714,10 +3722,10 @@
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3729,10 +3737,10 @@
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3744,10 +3752,10 @@
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3759,10 +3767,10 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3774,10 +3782,10 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D117" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3789,10 +3797,10 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3804,10 +3812,10 @@
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3819,10 +3827,10 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3834,10 +3842,10 @@
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3849,10 +3857,10 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3864,10 +3872,10 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3879,10 +3887,10 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D124" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3894,10 +3902,10 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3909,10 +3917,10 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D126" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3924,10 +3932,10 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3939,10 +3947,10 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3954,10 +3962,10 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D129" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3969,10 +3977,10 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3984,10 +3992,10 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D131" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3999,10 +4007,10 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D132" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4014,10 +4022,10 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D133" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4029,10 +4037,10 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4044,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D135" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4059,10 +4067,10 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4074,10 +4082,10 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D137" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4089,10 +4097,10 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4104,10 +4112,10 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4119,10 +4127,10 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4134,10 +4142,10 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D141" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4149,10 +4157,10 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4164,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4179,10 +4187,10 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4194,10 +4202,10 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D145" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4209,10 +4217,10 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4224,10 +4232,10 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4239,10 +4247,10 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4254,10 +4262,10 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4269,10 +4277,10 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D150" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4284,10 +4292,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4299,10 +4307,10 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D152" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4314,10 +4322,10 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4329,10 +4337,10 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4344,10 +4352,10 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4359,10 +4367,10 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4374,10 +4382,10 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4389,10 +4397,10 @@
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4404,10 +4412,10 @@
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4419,10 +4427,10 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D160" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4434,10 +4442,10 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4449,10 +4457,10 @@
         <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4464,10 +4472,10 @@
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D163" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4479,10 +4487,10 @@
         <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D164" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4494,10 +4502,10 @@
         <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D165" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4509,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4524,10 +4532,10 @@
         <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D167" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4539,10 +4547,10 @@
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D168" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4554,10 +4562,10 @@
         <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4569,10 +4577,10 @@
         <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D170" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4584,10 +4592,10 @@
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D171" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4599,10 +4607,10 @@
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D172" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4614,10 +4622,10 @@
         <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D173" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4629,10 +4637,10 @@
         <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D174" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4644,10 +4652,10 @@
         <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D175" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4659,10 +4667,10 @@
         <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D176" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4674,10 +4682,10 @@
         <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D177" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4689,10 +4697,10 @@
         <v>18</v>
       </c>
       <c r="C178" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D178" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4704,10 +4712,10 @@
         <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D179" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4719,10 +4727,10 @@
         <v>18</v>
       </c>
       <c r="C180" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D180" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4734,10 +4742,10 @@
         <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D181" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4749,10 +4757,10 @@
         <v>19</v>
       </c>
       <c r="C182" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D182" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4764,10 +4772,10 @@
         <v>19</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D183" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4779,10 +4787,10 @@
         <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D184" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4794,10 +4802,10 @@
         <v>19</v>
       </c>
       <c r="C185" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D185" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4809,10 +4817,10 @@
         <v>19</v>
       </c>
       <c r="C186" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D186" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4824,10 +4832,10 @@
         <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D187" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4839,10 +4847,10 @@
         <v>19</v>
       </c>
       <c r="C188" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D188" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4854,10 +4862,10 @@
         <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D189" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4869,10 +4877,10 @@
         <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D190" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4884,10 +4892,10 @@
         <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D191" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4899,10 +4907,10 @@
         <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4914,10 +4922,10 @@
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4929,10 +4937,10 @@
         <v>20</v>
       </c>
       <c r="C194" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D194" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4944,10 +4952,10 @@
         <v>20</v>
       </c>
       <c r="C195" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D195" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4959,10 +4967,10 @@
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D196" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4974,10 +4982,10 @@
         <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D197" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4989,10 +4997,10 @@
         <v>20</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D198" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5004,10 +5012,10 @@
         <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5019,10 +5027,10 @@
         <v>20</v>
       </c>
       <c r="C200" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D200" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5034,10 +5042,10 @@
         <v>20</v>
       </c>
       <c r="C201" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D201" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5048,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD85"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView topLeftCell="E58" workbookViewId="0">
-      <selection activeCell="AD85" sqref="AD85"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5818,7 +5826,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
@@ -5842,10 +5850,10 @@
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5970,7 +5978,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:12">
       <c r="A49" s="5"/>
       <c r="C49">
         <v>5</v>
@@ -6001,7 +6009,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:12">
       <c r="A50" s="5"/>
       <c r="C50">
         <v>6</v>
@@ -6032,7 +6040,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:12">
       <c r="A51" s="5"/>
       <c r="C51">
         <v>7</v>
@@ -6063,7 +6071,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:12">
       <c r="A52" s="5"/>
       <c r="C52">
         <v>8</v>
@@ -6094,7 +6102,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:12">
       <c r="A53" s="5"/>
       <c r="C53">
         <v>9</v>
@@ -6125,7 +6133,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:12">
       <c r="A54" s="5"/>
       <c r="C54">
         <v>10</v>
@@ -6154,7 +6162,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:12">
       <c r="A55" s="5"/>
       <c r="C55">
         <v>11</v>
@@ -6183,7 +6191,7 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:12">
       <c r="A56" s="5"/>
       <c r="C56">
         <v>12</v>
@@ -6212,527 +6220,388 @@
         <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600;300,950,400,600</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="S61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="5"/>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <v>800</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" t="str">
+        <f>D62&amp;H62&amp;E62&amp;H62&amp;F62&amp;H62&amp;G62</f>
+        <v>0,50,800,1000</v>
+      </c>
+      <c r="L62" t="str">
+        <f>I62</f>
+        <v>0,50,800,1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <f>F62-50</f>
+        <v>750</v>
+      </c>
+      <c r="G63">
+        <f>G62-50</f>
+        <v>950</v>
+      </c>
+      <c r="H63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" ref="I63:I73" si="8">D63&amp;H63&amp;E63&amp;H63&amp;F63&amp;H63&amp;G63</f>
+        <v>10,55,750,950</v>
+      </c>
+      <c r="L63" t="str">
+        <f>L62&amp;";"&amp;I63</f>
+        <v>0,50,800,1000;10,55,750,950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="5"/>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
         <v>60</v>
       </c>
-      <c r="D64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="T64" t="s">
-        <v>60</v>
-      </c>
-      <c r="U64" t="s">
-        <v>55</v>
-      </c>
-      <c r="V64" t="s">
-        <v>125</v>
-      </c>
-      <c r="W64" t="s">
-        <v>128</v>
-      </c>
-      <c r="X64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="F64">
+        <f t="shared" ref="F64:G70" si="9">F63-50</f>
+        <v>700</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="8"/>
+        <v>20,60,700,900</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" ref="L64:L73" si="10">L63&amp;";"&amp;I64</f>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="5"/>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="F65">
-        <v>800</v>
+        <f t="shared" si="9"/>
+        <v>650</v>
       </c>
       <c r="G65">
-        <v>1000</v>
+        <f t="shared" si="9"/>
+        <v>850</v>
       </c>
       <c r="H65" t="s">
         <v>61</v>
       </c>
       <c r="I65" t="str">
-        <f>D65&amp;H65&amp;E65&amp;H65&amp;F65&amp;H65&amp;G65</f>
-        <v>0,400,800,1000</v>
+        <f t="shared" si="8"/>
+        <v>40,65,650,850</v>
       </c>
       <c r="L65" t="str">
-        <f>I65</f>
-        <v>0,400,800,1000</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>1</v>
-      </c>
-      <c r="W65" t="s">
-        <v>126</v>
-      </c>
-      <c r="X65" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA65" t="str">
-        <f>U65&amp;Z65&amp;V65&amp;Z65&amp;W65&amp;Z65&amp;X65</f>
-        <v>0,1,level_0,b01</v>
-      </c>
-      <c r="AD65" t="str">
-        <f>AA65</f>
-        <v>0,1,level_0,b01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="5"/>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E66">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <f>F65-50</f>
-        <v>750</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
       <c r="G66">
-        <f>G65-50</f>
-        <v>950</v>
+        <f t="shared" si="9"/>
+        <v>800</v>
       </c>
       <c r="H66" t="s">
         <v>61</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I76" si="8">D66&amp;H66&amp;E66&amp;H66&amp;F66&amp;H66&amp;G66</f>
-        <v>10,450,750,950</v>
+        <f t="shared" si="8"/>
+        <v>60,70,600,800</v>
       </c>
       <c r="L66" t="str">
-        <f>L65&amp;";"&amp;I66</f>
-        <v>0,400,800,1000;10,450,750,950</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>12</v>
-      </c>
-      <c r="V66">
-        <v>1</v>
-      </c>
-      <c r="W66" t="s">
-        <v>104</v>
-      </c>
-      <c r="X66" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA85" si="9">U66&amp;Z66&amp;V66&amp;Z66&amp;W66&amp;Z66&amp;X66</f>
-        <v>12,1,level_1,b01</v>
-      </c>
-      <c r="AD66" t="str">
-        <f>AD65&amp;";"&amp;AA66</f>
-        <v>0,1,level_0,b01;12,1,level_1,b01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="5"/>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E67">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:G73" si="10">F66-50</f>
-        <v>700</v>
+        <f t="shared" si="9"/>
+        <v>550</v>
       </c>
       <c r="G67">
-        <f t="shared" si="10"/>
-        <v>900</v>
+        <f t="shared" si="9"/>
+        <v>750</v>
       </c>
       <c r="H67" t="s">
         <v>61</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="8"/>
-        <v>20,500,700,900</v>
+        <v>80,75,550,750</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L76" si="11">L66&amp;";"&amp;I67</f>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900</v>
-      </c>
-      <c r="T67">
-        <v>3</v>
-      </c>
-      <c r="U67">
-        <v>36</v>
-      </c>
-      <c r="V67">
-        <v>2</v>
-      </c>
-      <c r="W67" t="s">
-        <v>105</v>
-      </c>
-      <c r="X67" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" si="9"/>
-        <v>36,2,level_2,b01</v>
-      </c>
-      <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD85" si="12">AD66&amp;";"&amp;AA67</f>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="5"/>
       <c r="C68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E68">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="F68">
-        <f t="shared" si="10"/>
-        <v>650</v>
+        <f t="shared" si="9"/>
+        <v>500</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
-        <v>850</v>
+        <f t="shared" si="9"/>
+        <v>700</v>
       </c>
       <c r="H68" t="s">
         <v>61</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="8"/>
-        <v>40,550,650,850</v>
+        <v>100,80,500,700</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850</v>
-      </c>
-      <c r="T68">
-        <v>4</v>
-      </c>
-      <c r="U68">
-        <v>72</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
-      <c r="W68" t="s">
-        <v>106</v>
-      </c>
-      <c r="X68" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA68" t="str">
-        <f t="shared" si="9"/>
-        <v>72,2,level_3,b01</v>
-      </c>
-      <c r="AD68" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="5"/>
       <c r="C69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E69">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="F69">
-        <f t="shared" si="10"/>
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>450</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
-        <v>800</v>
+        <f t="shared" si="9"/>
+        <v>650</v>
       </c>
       <c r="H69" t="s">
         <v>61</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="8"/>
-        <v>60,600,600,800</v>
+        <v>120,85,450,650</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800</v>
-      </c>
-      <c r="T69">
-        <v>5</v>
-      </c>
-      <c r="U69">
-        <v>132</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
-      <c r="W69" t="s">
-        <v>107</v>
-      </c>
-      <c r="X69" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA69" t="str">
-        <f t="shared" si="9"/>
-        <v>132,2,level_4,b02</v>
-      </c>
-      <c r="AD69" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="5"/>
       <c r="C70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E70">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="F70">
-        <f t="shared" si="10"/>
-        <v>550</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
-        <v>750</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
       <c r="H70" t="s">
         <v>61</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="8"/>
-        <v>80,650,550,750</v>
+        <v>160,90,400,600</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750</v>
-      </c>
-      <c r="T70">
-        <v>6</v>
-      </c>
-      <c r="U70">
-        <v>168</v>
-      </c>
-      <c r="V70">
-        <v>3</v>
-      </c>
-      <c r="W70" t="s">
-        <v>108</v>
-      </c>
-      <c r="X70" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="9"/>
-        <v>168,3,level_5,b02</v>
-      </c>
-      <c r="AD70" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650;160,90,400,600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="5"/>
       <c r="C71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E71">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="F71">
-        <f t="shared" si="10"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H71" t="s">
         <v>61</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="8"/>
-        <v>100,700,500,700</v>
+        <v>200,95,400,600</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700</v>
-      </c>
-      <c r="T71">
-        <v>7</v>
-      </c>
-      <c r="U71">
-        <v>204</v>
-      </c>
-      <c r="V71">
-        <v>3</v>
-      </c>
-      <c r="W71" t="s">
-        <v>109</v>
-      </c>
-      <c r="X71" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="9"/>
-        <v>204,3,level_6,b03</v>
-      </c>
-      <c r="AD71" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650;160,90,400,600;200,95,400,600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="5"/>
       <c r="C72">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E72">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="F72">
-        <f t="shared" si="10"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H72" t="s">
         <v>61</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="8"/>
-        <v>120,750,450,650</v>
+        <v>250,100,400,600</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650</v>
-      </c>
-      <c r="T72">
-        <v>8</v>
-      </c>
-      <c r="U72">
-        <v>252</v>
-      </c>
-      <c r="V72">
-        <v>3</v>
-      </c>
-      <c r="W72" t="s">
-        <v>110</v>
-      </c>
-      <c r="X72" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA72" t="str">
-        <f t="shared" si="9"/>
-        <v>252,3,level_7,b03</v>
-      </c>
-      <c r="AD72" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650;160,90,400,600;200,95,400,600;250,100,400,600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="5"/>
       <c r="C73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E73">
-        <v>800</v>
+        <v>105</v>
       </c>
       <c r="F73">
-        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
         <v>600</v>
       </c>
       <c r="H73" t="s">
@@ -6740,462 +6609,998 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="8"/>
+        <v>300,105,400,600</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="10"/>
+        <v>0,50,800,1000;10,55,750,950;20,60,700,900;40,65,650,850;60,70,600,800;80,75,550,750;100,80,500,700;120,85,450,650;160,90,400,600;200,95,400,600;250,100,400,600;300,105,400,600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="S77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" s="5"/>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s">
+        <v>60</v>
+      </c>
+      <c r="U80" t="s">
+        <v>55</v>
+      </c>
+      <c r="V80" t="s">
+        <v>122</v>
+      </c>
+      <c r="W80" t="s">
+        <v>125</v>
+      </c>
+      <c r="X80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
+      <c r="A81" s="5"/>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>400</v>
+      </c>
+      <c r="F81">
+        <v>800</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" t="str">
+        <f>D81&amp;H81&amp;E81&amp;H81&amp;F81&amp;H81&amp;G81</f>
+        <v>0,400,800,1000</v>
+      </c>
+      <c r="L81" t="str">
+        <f>I81</f>
+        <v>0,400,800,1000</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>123</v>
+      </c>
+      <c r="X81" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA81" t="str">
+        <f>U81&amp;Z81&amp;V81&amp;Z81&amp;W81&amp;Z81&amp;X81</f>
+        <v>0,1,level_0,b01</v>
+      </c>
+      <c r="AD81" t="str">
+        <f>AA81</f>
+        <v>0,1,level_0,b01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
+      <c r="A82" s="5"/>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>450</v>
+      </c>
+      <c r="F82">
+        <f>F81-50</f>
+        <v>750</v>
+      </c>
+      <c r="G82">
+        <f>G81-50</f>
+        <v>950</v>
+      </c>
+      <c r="H82" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" ref="I82:I92" si="11">D82&amp;H82&amp;E82&amp;H82&amp;F82&amp;H82&amp;G82</f>
+        <v>10,450,750,950</v>
+      </c>
+      <c r="L82" t="str">
+        <f>L81&amp;";"&amp;I82</f>
+        <v>0,400,800,1000;10,450,750,950</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>12</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82" t="s">
+        <v>101</v>
+      </c>
+      <c r="X82" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" ref="AA82:AA101" si="12">U82&amp;Z82&amp;V82&amp;Z82&amp;W82&amp;Z82&amp;X82</f>
+        <v>12,1,level_1,b01</v>
+      </c>
+      <c r="AD82" t="str">
+        <f>AD81&amp;";"&amp;AA82</f>
+        <v>0,1,level_0,b01;12,1,level_1,b01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
+      <c r="A83" s="5"/>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:G89" si="13">F82-50</f>
+        <v>700</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="H83" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="11"/>
+        <v>20,500,700,900</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" ref="L83:L92" si="14">L82&amp;";"&amp;I83</f>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>36</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83" t="s">
+        <v>102</v>
+      </c>
+      <c r="X83" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="12"/>
+        <v>36,2,level_2,b01</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" ref="AD83:AD101" si="15">AD82&amp;";"&amp;AA83</f>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
+      <c r="A84" s="5"/>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>550</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="13"/>
+        <v>650</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>850</v>
+      </c>
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="11"/>
+        <v>40,550,650,850</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850</v>
+      </c>
+      <c r="T84">
+        <v>4</v>
+      </c>
+      <c r="U84">
+        <v>72</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84" t="s">
+        <v>103</v>
+      </c>
+      <c r="X84" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="12"/>
+        <v>72,2,level_3,b01</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
+      <c r="A85" s="5"/>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>60</v>
+      </c>
+      <c r="E85">
+        <v>600</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>800</v>
+      </c>
+      <c r="H85" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="11"/>
+        <v>60,600,600,800</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800</v>
+      </c>
+      <c r="T85">
+        <v>5</v>
+      </c>
+      <c r="U85">
+        <v>132</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85" t="s">
+        <v>104</v>
+      </c>
+      <c r="X85" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="12"/>
+        <v>132,2,level_4,b02</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
+      <c r="A86" s="5"/>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>80</v>
+      </c>
+      <c r="E86">
+        <v>650</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="13"/>
+        <v>550</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>750</v>
+      </c>
+      <c r="H86" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="11"/>
+        <v>80,650,550,750</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750</v>
+      </c>
+      <c r="T86">
+        <v>6</v>
+      </c>
+      <c r="U86">
+        <v>168</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86" t="s">
+        <v>105</v>
+      </c>
+      <c r="X86" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="12"/>
+        <v>168,3,level_5,b02</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
+      <c r="A87" s="5"/>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>700</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>700</v>
+      </c>
+      <c r="H87" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="11"/>
+        <v>100,700,500,700</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+      <c r="U87">
+        <v>204</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87" t="s">
+        <v>106</v>
+      </c>
+      <c r="X87" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="12"/>
+        <v>204,3,level_6,b03</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
+      <c r="A88" s="5"/>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>120</v>
+      </c>
+      <c r="E88">
+        <v>750</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>650</v>
+      </c>
+      <c r="H88" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="11"/>
+        <v>120,750,450,650</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650</v>
+      </c>
+      <c r="T88">
+        <v>8</v>
+      </c>
+      <c r="U88">
+        <v>252</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88" t="s">
+        <v>107</v>
+      </c>
+      <c r="X88" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="12"/>
+        <v>252,3,level_7,b03</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="A89" s="5"/>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>160</v>
+      </c>
+      <c r="E89">
+        <v>800</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="11"/>
         <v>160,800,400,600</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L89" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600</v>
+      </c>
+      <c r="T89">
+        <v>9</v>
+      </c>
+      <c r="U89">
+        <v>288</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89" t="s">
+        <v>108</v>
+      </c>
+      <c r="X89" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="12"/>
+        <v>288,3,level_8,b04</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90" s="5"/>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>200</v>
+      </c>
+      <c r="E90">
+        <v>850</v>
+      </c>
+      <c r="F90">
+        <v>400</v>
+      </c>
+      <c r="G90">
+        <v>600</v>
+      </c>
+      <c r="H90" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" t="str">
         <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600</v>
-      </c>
-      <c r="T73">
-        <v>9</v>
-      </c>
-      <c r="U73">
-        <v>288</v>
-      </c>
-      <c r="V73">
-        <v>3</v>
-      </c>
-      <c r="W73" t="s">
+        <v>200,850,400,600</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600</v>
+      </c>
+      <c r="T90">
+        <v>10</v>
+      </c>
+      <c r="U90">
+        <v>324</v>
+      </c>
+      <c r="V90">
+        <v>4</v>
+      </c>
+      <c r="W90" t="s">
+        <v>109</v>
+      </c>
+      <c r="X90" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="12"/>
+        <v>324,4,level_9,b04</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
+      <c r="A91" s="5"/>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>250</v>
+      </c>
+      <c r="E91">
+        <v>900</v>
+      </c>
+      <c r="F91">
+        <v>400</v>
+      </c>
+      <c r="G91">
+        <v>600</v>
+      </c>
+      <c r="H91" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="11"/>
+        <v>250,900,400,600</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600</v>
+      </c>
+      <c r="T91">
+        <v>11</v>
+      </c>
+      <c r="U91">
+        <v>360</v>
+      </c>
+      <c r="V91">
+        <v>4</v>
+      </c>
+      <c r="W91" t="s">
+        <v>110</v>
+      </c>
+      <c r="X91" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="12"/>
+        <v>360,4,level_10,b05</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
+      <c r="A92" s="5"/>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>300</v>
+      </c>
+      <c r="E92">
+        <v>950</v>
+      </c>
+      <c r="F92">
+        <v>400</v>
+      </c>
+      <c r="G92">
+        <v>600</v>
+      </c>
+      <c r="H92" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="11"/>
+        <v>300,950,400,600</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="14"/>
+        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600;300,950,400,600</v>
+      </c>
+      <c r="T92">
+        <v>12</v>
+      </c>
+      <c r="U92">
+        <v>420</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92" t="s">
         <v>111</v>
       </c>
-      <c r="X73" t="s">
+      <c r="X92" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="12"/>
+        <v>420,5,level_11,b06</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="T93">
+        <v>13</v>
+      </c>
+      <c r="U93">
+        <v>480</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93" t="s">
+        <v>112</v>
+      </c>
+      <c r="X93" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="12"/>
+        <v>480,5,level_12,b06</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
+      <c r="T94">
+        <v>14</v>
+      </c>
+      <c r="U94">
+        <v>540</v>
+      </c>
+      <c r="V94">
+        <v>5</v>
+      </c>
+      <c r="W94" t="s">
+        <v>113</v>
+      </c>
+      <c r="X94" t="s">
         <v>154</v>
       </c>
-      <c r="Z73" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA73" t="str">
-        <f t="shared" si="9"/>
-        <v>288,3,level_8,b04</v>
-      </c>
-      <c r="AD73" t="str">
+      <c r="Z94" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA94" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
-      <c r="A74" s="5"/>
-      <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>200</v>
-      </c>
-      <c r="E74">
-        <v>850</v>
-      </c>
-      <c r="F74">
-        <v>400</v>
-      </c>
-      <c r="G74">
+        <v>540,5,level_13,b07</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="T95">
+        <v>15</v>
+      </c>
+      <c r="U95">
         <v>600</v>
       </c>
-      <c r="H74" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="8"/>
-        <v>200,850,400,600</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600</v>
-      </c>
-      <c r="T74">
-        <v>10</v>
-      </c>
-      <c r="U74">
-        <v>324</v>
-      </c>
-      <c r="V74">
-        <v>4</v>
-      </c>
-      <c r="W74" t="s">
-        <v>112</v>
-      </c>
-      <c r="X74" t="s">
+      <c r="V95">
+        <v>5</v>
+      </c>
+      <c r="W95" t="s">
+        <v>114</v>
+      </c>
+      <c r="X95" t="s">
         <v>154</v>
       </c>
-      <c r="Z74" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA74" t="str">
-        <f t="shared" si="9"/>
-        <v>324,4,level_9,b04</v>
-      </c>
-      <c r="AD74" t="str">
+      <c r="Z95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA95" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
-      <c r="A75" s="5"/>
-      <c r="C75">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>250</v>
-      </c>
-      <c r="E75">
-        <v>900</v>
-      </c>
-      <c r="F75">
-        <v>400</v>
-      </c>
-      <c r="G75">
-        <v>600</v>
-      </c>
-      <c r="H75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="8"/>
-        <v>250,900,400,600</v>
-      </c>
-      <c r="L75" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600</v>
-      </c>
-      <c r="T75">
-        <v>11</v>
-      </c>
-      <c r="U75">
-        <v>360</v>
-      </c>
-      <c r="V75">
-        <v>4</v>
-      </c>
-      <c r="W75" t="s">
-        <v>113</v>
-      </c>
-      <c r="X75" t="s">
+        <v>600,5,level_14,b07</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="T96">
+        <v>16</v>
+      </c>
+      <c r="U96">
+        <v>660</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96" t="s">
+        <v>115</v>
+      </c>
+      <c r="X96" t="s">
         <v>155</v>
       </c>
-      <c r="Z75" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA75" t="str">
-        <f t="shared" si="9"/>
-        <v>360,4,level_10,b05</v>
-      </c>
-      <c r="AD75" t="str">
+      <c r="Z96" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA96" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
-      <c r="A76" s="5"/>
-      <c r="C76">
-        <v>12</v>
-      </c>
-      <c r="D76">
-        <v>300</v>
-      </c>
-      <c r="E76">
-        <v>950</v>
-      </c>
-      <c r="F76">
-        <v>400</v>
-      </c>
-      <c r="G76">
-        <v>600</v>
-      </c>
-      <c r="H76" t="s">
-        <v>61</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="8"/>
-        <v>300,950,400,600</v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" si="11"/>
-        <v>0,400,800,1000;10,450,750,950;20,500,700,900;40,550,650,850;60,600,600,800;80,650,550,750;100,700,500,700;120,750,450,650;160,800,400,600;200,850,400,600;250,900,400,600;300,950,400,600</v>
-      </c>
-      <c r="T76">
-        <v>12</v>
-      </c>
-      <c r="U76">
-        <v>420</v>
-      </c>
-      <c r="V76">
+        <v>660,5,level_15,b08</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08</v>
+      </c>
+    </row>
+    <row r="97" spans="20:30">
+      <c r="T97">
+        <v>17</v>
+      </c>
+      <c r="U97">
+        <v>720</v>
+      </c>
+      <c r="V97">
         <v>5</v>
       </c>
-      <c r="W76" t="s">
-        <v>114</v>
-      </c>
-      <c r="X76" t="s">
+      <c r="W97" t="s">
+        <v>116</v>
+      </c>
+      <c r="X97" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="12"/>
+        <v>720,5,level_16,b08</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08</v>
+      </c>
+    </row>
+    <row r="98" spans="20:30">
+      <c r="T98">
+        <v>18</v>
+      </c>
+      <c r="U98">
+        <v>840</v>
+      </c>
+      <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98" t="s">
+        <v>117</v>
+      </c>
+      <c r="X98" t="s">
         <v>156</v>
       </c>
-      <c r="Z76" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA76" t="str">
-        <f t="shared" si="9"/>
-        <v>420,5,level_11,b06</v>
-      </c>
-      <c r="AD76" t="str">
+      <c r="Z98" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA98" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
-      <c r="T77">
-        <v>13</v>
-      </c>
-      <c r="U77">
-        <v>480</v>
-      </c>
-      <c r="V77">
+        <v>840,5,level_17,b09</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09</v>
+      </c>
+    </row>
+    <row r="99" spans="20:30">
+      <c r="T99">
+        <v>19</v>
+      </c>
+      <c r="U99">
+        <v>960</v>
+      </c>
+      <c r="V99">
         <v>5</v>
       </c>
-      <c r="W77" t="s">
-        <v>115</v>
-      </c>
-      <c r="X77" t="s">
+      <c r="W99" t="s">
+        <v>118</v>
+      </c>
+      <c r="X99" t="s">
         <v>156</v>
       </c>
-      <c r="Z77" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA77" t="str">
-        <f t="shared" si="9"/>
-        <v>480,5,level_12,b06</v>
-      </c>
-      <c r="AD77" t="str">
+      <c r="Z99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA99" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
-      <c r="T78">
-        <v>14</v>
-      </c>
-      <c r="U78">
-        <v>540</v>
-      </c>
-      <c r="V78">
+        <v>960,5,level_18,b09</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09</v>
+      </c>
+    </row>
+    <row r="100" spans="20:30">
+      <c r="T100">
+        <v>20</v>
+      </c>
+      <c r="U100">
+        <v>1080</v>
+      </c>
+      <c r="V100">
         <v>5</v>
       </c>
-      <c r="W78" t="s">
-        <v>116</v>
-      </c>
-      <c r="X78" t="s">
+      <c r="W100" t="s">
+        <v>119</v>
+      </c>
+      <c r="X100" t="s">
         <v>157</v>
       </c>
-      <c r="Z78" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA78" t="str">
-        <f t="shared" si="9"/>
-        <v>540,5,level_13,b07</v>
-      </c>
-      <c r="AD78" t="str">
+      <c r="Z100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA100" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
-      <c r="T79">
-        <v>15</v>
-      </c>
-      <c r="U79">
-        <v>600</v>
-      </c>
-      <c r="V79">
+        <v>1080,5,level_19,b10</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="15"/>
+        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09;1080,5,level_19,b10</v>
+      </c>
+    </row>
+    <row r="101" spans="20:30">
+      <c r="T101">
+        <v>21</v>
+      </c>
+      <c r="U101">
+        <v>1200</v>
+      </c>
+      <c r="V101">
         <v>5</v>
       </c>
-      <c r="W79" t="s">
-        <v>117</v>
-      </c>
-      <c r="X79" t="s">
+      <c r="W101" t="s">
+        <v>120</v>
+      </c>
+      <c r="X101" t="s">
         <v>157</v>
       </c>
-      <c r="Z79" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA79" t="str">
-        <f t="shared" si="9"/>
-        <v>600,5,level_14,b07</v>
-      </c>
-      <c r="AD79" t="str">
+      <c r="Z101" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA101" t="str">
         <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
-      <c r="T80">
-        <v>16</v>
-      </c>
-      <c r="U80">
-        <v>660</v>
-      </c>
-      <c r="V80">
-        <v>5</v>
-      </c>
-      <c r="W80" t="s">
-        <v>118</v>
-      </c>
-      <c r="X80" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA80" t="str">
-        <f t="shared" si="9"/>
-        <v>660,5,level_15,b08</v>
-      </c>
-      <c r="AD80" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08</v>
-      </c>
-    </row>
-    <row r="81" spans="20:30">
-      <c r="T81">
-        <v>17</v>
-      </c>
-      <c r="U81">
-        <v>720</v>
-      </c>
-      <c r="V81">
-        <v>5</v>
-      </c>
-      <c r="W81" t="s">
-        <v>119</v>
-      </c>
-      <c r="X81" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA81" t="str">
-        <f t="shared" si="9"/>
-        <v>720,5,level_16,b08</v>
-      </c>
-      <c r="AD81" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08</v>
-      </c>
-    </row>
-    <row r="82" spans="20:30">
-      <c r="T82">
-        <v>18</v>
-      </c>
-      <c r="U82">
-        <v>840</v>
-      </c>
-      <c r="V82">
-        <v>5</v>
-      </c>
-      <c r="W82" t="s">
-        <v>120</v>
-      </c>
-      <c r="X82" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA82" t="str">
-        <f t="shared" si="9"/>
-        <v>840,5,level_17,b09</v>
-      </c>
-      <c r="AD82" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09</v>
-      </c>
-    </row>
-    <row r="83" spans="20:30">
-      <c r="T83">
-        <v>19</v>
-      </c>
-      <c r="U83">
-        <v>960</v>
-      </c>
-      <c r="V83">
-        <v>5</v>
-      </c>
-      <c r="W83" t="s">
-        <v>121</v>
-      </c>
-      <c r="X83" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="9"/>
-        <v>960,5,level_18,b09</v>
-      </c>
-      <c r="AD83" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09</v>
-      </c>
-    </row>
-    <row r="84" spans="20:30">
-      <c r="T84">
-        <v>20</v>
-      </c>
-      <c r="U84">
-        <v>1080</v>
-      </c>
-      <c r="V84">
-        <v>5</v>
-      </c>
-      <c r="W84" t="s">
-        <v>122</v>
-      </c>
-      <c r="X84" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA84" t="str">
-        <f t="shared" si="9"/>
-        <v>1080,5,level_19,b10</v>
-      </c>
-      <c r="AD84" t="str">
-        <f t="shared" si="12"/>
-        <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09;1080,5,level_19,b10</v>
-      </c>
-    </row>
-    <row r="85" spans="20:30">
-      <c r="T85">
-        <v>21</v>
-      </c>
-      <c r="U85">
-        <v>1200</v>
-      </c>
-      <c r="V85">
-        <v>5</v>
-      </c>
-      <c r="W85" t="s">
-        <v>123</v>
-      </c>
-      <c r="X85" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA85" t="str">
-        <f t="shared" si="9"/>
         <v>1200,5,level_20,b10</v>
       </c>
-      <c r="AD85" t="str">
-        <f t="shared" si="12"/>
+      <c r="AD101" t="str">
+        <f t="shared" si="15"/>
         <v>0,1,level_0,b01;12,1,level_1,b01;36,2,level_2,b01;72,2,level_3,b01;132,2,level_4,b02;168,3,level_5,b02;204,3,level_6,b03;252,3,level_7,b03;288,3,level_8,b04;324,4,level_9,b04;360,4,level_10,b05;420,5,level_11,b06;480,5,level_12,b06;540,5,level_13,b07;600,5,level_14,b07;660,5,level_15,b08;720,5,level_16,b08;840,5,level_17,b09;960,5,level_18,b09;1080,5,level_19,b10;1200,5,level_20,b10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A16"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="A41:A56"/>
-    <mergeCell ref="A61:A76"/>
+    <mergeCell ref="A77:A92"/>
+    <mergeCell ref="A58:A73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
